--- a/30_請求書.xlsx
+++ b/30_請求書.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="商品リスト" sheetId="2" r:id="rId2"/>
+    <sheet name="商品リスト" sheetId="2" r:id="rId1"/>
+    <sheet name="見積書" sheetId="3" r:id="rId2"/>
+    <sheet name="納品書" sheetId="4" r:id="rId3"/>
+    <sheet name="請求書" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
@@ -249,6 +251,119 @@
   </si>
   <si>
     <t>レターケース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見積書</t>
+    <rPh sb="0" eb="3">
+      <t>ミツモリショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記の通り、お見積り申し上げます。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミツモ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品場所：</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有効期限：</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発行日から30日</t>
+    <rPh sb="0" eb="2">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見積番号：</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品書</t>
+    <rPh sb="0" eb="3">
+      <t>ノウヒンショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品番号：</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記の通り、納品いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ノウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>摘要：</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>毎度ありがとうございます。</t>
+    <rPh sb="0" eb="2">
+      <t>マイド</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -256,10 +371,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,###&quot;円&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="#,##0&quot;円&quot;"/>
+    <numFmt numFmtId="180" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +418,31 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,8 +455,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -375,6 +526,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -382,7 +542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -392,9 +552,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,25 +568,10 @@
     <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -437,6 +579,90 @@
     <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -444,6 +670,37 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -484,37 +741,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="メイリオ"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="メイリオ"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -529,12 +755,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル3" displayName="テーブル3" ref="A1:C10" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル3" displayName="テーブル3" ref="A1:C10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C10"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="注文番号" dataDxfId="0"/>
+    <tableColumn id="1" name="注文番号" dataDxfId="2"/>
     <tableColumn id="2" name="商品名" dataDxfId="1"/>
-    <tableColumn id="3" name="本体価格" dataDxfId="4" dataCellStyle="桁区切り"/>
+    <tableColumn id="3" name="本体価格" dataDxfId="0" dataCellStyle="桁区切り"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -827,7 +1053,641 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="16">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="15">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="16">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="16">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="15">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="16">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="15">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="16">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="15">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="16">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="15">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="16">
+        <v>3001</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="15">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="16">
+        <v>3002</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="15">
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="16">
+        <v>3003</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="15">
+        <v>3500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A10 C2:C10"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="D3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="D4" s="27">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="31">
+        <f t="shared" ref="A7" si="0">E19</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8" t="str">
+        <f>IF(A11="", "", VLOOKUP(A11, テーブル3[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="9" t="str">
+        <f>IFERROR(VLOOKUP(A11, テーブル3[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10" t="str">
+        <f>IFERROR(C11*D11, "0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8" t="str">
+        <f>IF(A12="", "", VLOOKUP(A12, テーブル3[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="9" t="str">
+        <f>IFERROR(VLOOKUP(A12, テーブル3[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10" t="str">
+        <f t="shared" ref="E12:E16" si="1">IFERROR(C12*D12, "0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8" t="str">
+        <f>IF(A13="", "", VLOOKUP(A13, テーブル3[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="9" t="str">
+        <f>IFERROR(VLOOKUP(A13, テーブル3[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8" t="str">
+        <f>IF(A14="", "", VLOOKUP(A14, テーブル3[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="9" t="str">
+        <f>IFERROR(VLOOKUP(A14, テーブル3[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8" t="str">
+        <f>IF(A15="", "", VLOOKUP(A15, テーブル3[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="9" t="str">
+        <f>IFERROR(VLOOKUP(A15, テーブル3[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8" t="str">
+        <f>IF(A16="", "", VLOOKUP(A16, テーブル3[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="9" t="str">
+        <f>IFERROR(VLOOKUP(A16, テーブル3[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C17" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="10">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A18" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="23">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A19" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="24">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C17:D17"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 D18"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="D4" s="27">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8" t="str">
+        <f>IF(A11="", "", VLOOKUP(A11, テーブル3[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="9" t="str">
+        <f>IFERROR(VLOOKUP(A11, テーブル3[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10" t="str">
+        <f>IFERROR(C11*D11, "0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8" t="str">
+        <f>IF(A12="", "", VLOOKUP(A12, テーブル3[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="9" t="str">
+        <f>IFERROR(VLOOKUP(A12, テーブル3[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10" t="str">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12, "0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8" t="str">
+        <f>IF(A13="", "", VLOOKUP(A13, テーブル3[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="9" t="str">
+        <f>IFERROR(VLOOKUP(A13, テーブル3[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8" t="str">
+        <f>IF(A14="", "", VLOOKUP(A14, テーブル3[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="9" t="str">
+        <f>IFERROR(VLOOKUP(A14, テーブル3[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8" t="str">
+        <f>IF(A15="", "", VLOOKUP(A15, テーブル3[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="9" t="str">
+        <f>IFERROR(VLOOKUP(A15, テーブル3[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8" t="str">
+        <f>IF(A16="", "", VLOOKUP(A16, テーブル3[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="9" t="str">
+        <f>IFERROR(VLOOKUP(A16, テーブル3[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C17" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="10">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A18" s="28"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="23">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A19" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="24">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C17:D17"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 D18"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -838,312 +1698,242 @@
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="1" customWidth="1"/>
     <col min="3" max="5" width="15.77734375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="4" t="s">
+    <row r="1" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="42"/>
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="14" t="s">
+      <c r="E3" s="43"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="D4" s="27">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="22"/>
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="25">
+        <f t="shared" ref="A7:B8" si="0">E19</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="25"/>
       <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="44"/>
+      <c r="B11" s="8" t="str">
+        <f>IF(A11="", "", VLOOKUP(A11, テーブル3[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="9" t="str">
+        <f>IFERROR(VLOOKUP(A11, テーブル3[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="10" t="str">
+        <f>IFERROR(C11*D11, "0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="44"/>
+      <c r="B12" s="8" t="str">
+        <f>IF(A12="", "", VLOOKUP(A12, テーブル3[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="9" t="str">
+        <f>IFERROR(VLOOKUP(A12, テーブル3[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="10" t="str">
+        <f t="shared" ref="E12:E16" si="1">IFERROR(C12*D12, "0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="44"/>
+      <c r="B13" s="8" t="str">
+        <f>IF(A13="", "", VLOOKUP(A13, テーブル3[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="9" t="str">
+        <f>IFERROR(VLOOKUP(A13, テーブル3[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="44"/>
+      <c r="B14" s="8" t="str">
+        <f>IF(A14="", "", VLOOKUP(A14, テーブル3[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="9" t="str">
+        <f>IFERROR(VLOOKUP(A14, テーブル3[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="44"/>
+      <c r="B15" s="8" t="str">
+        <f>IF(A15="", "", VLOOKUP(A15, テーブル3[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="9" t="str">
+        <f>IFERROR(VLOOKUP(A15, テーブル3[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="44"/>
+      <c r="B16" s="8" t="str">
+        <f>IF(A16="", "", VLOOKUP(A16, テーブル3[], 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="9" t="str">
+        <f>IFERROR(VLOOKUP(A16, テーブル3[], 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="11"/>
+      <c r="C17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="10">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C18" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="23">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A19" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C19" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="11"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="24">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="8">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 D19"/>
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 D18"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="22">
-        <v>1001</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="21">
-        <v>15900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="22">
-        <v>1002</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="21">
-        <v>19900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="22">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="21">
-        <v>49400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="22">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="21">
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="22">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="21">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="22">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="21">
-        <v>25400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="22">
-        <v>3001</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="21">
-        <v>12300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="22">
-        <v>3002</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="21">
-        <v>26700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="22">
-        <v>3003</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="21">
-        <v>3500</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <dataValidations count="1">
-    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A10 C2:C10"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>